--- a/00. DOC/01. AD_업무분석 및 설계/일정표/KORAIL_일정표(요약) - 5월.xlsx
+++ b/00. DOC/01. AD_업무분석 및 설계/일정표/KORAIL_일정표(요약) - 5월.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="19200" windowHeight="11760"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="20730" windowHeight="11595" tabRatio="590"/>
   </bookViews>
   <sheets>
     <sheet name="3월(요약)" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>수</t>
   </si>
@@ -29,35 +29,18 @@
   </si>
   <si>
     <t>일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>월</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>화</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>5월 일정표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 2일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 1일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5월 3일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -68,14 +51,13 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5월 1주</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -86,14 +68,13 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5월 2주</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -104,14 +85,13 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5월 3주</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -122,14 +102,13 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5월 5주</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -140,42 +119,32 @@
       <rPr>
         <b/>
         <sz val="11"/>
+        <color rgb="FF000000"/>
         <rFont val="맑은 고딕"/>
         <family val="3"/>
         <charset val="129"/>
-        <scheme val="minor"/>
       </rPr>
       <t>5월 4주</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>산출물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 일정 수립
  - 총괄 일정표
  - 5월 일정표
  - 추진 조직도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>업무 협의
 1. 과제 발표
 2. 개발 5조와의 업무협의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무 협의
-1. 개발 방향 상세 협의</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 업무 분석 및 설계
  - 요구사항 정의서
  - 업무 프로세서 설계서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 업무분석 및 설계
@@ -185,22 +154,47 @@
 2. 기술설계
    - 테이블 목록
    - 테이블 정의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 기술설계
-   - 테이블 정의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>업무협의
-1. 기타 필요 시 협의
-2. 1차 팀 발표회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 기술설계
    - 기타 산출물</t>
+  </si>
+  <si>
+    <t>6월 1일</t>
+  </si>
+  <si>
+    <t>6월 2일</t>
+  </si>
+  <si>
+    <t>6월 3일</t>
+  </si>
+  <si>
+    <t>1. 기술설계
+   - 테이블 정의서
+   - 스토리 보드 제작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테스트 시작
+1. 데이터베이스에 DB 적재 및 테스트
+2. 기타 프로세스 테스트
+3. 팀 발표회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 단계 실시
+1. 기타 필요 시 협의</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 협의
+1. 개발 방향 상세 협의
+2. 프로세스 명세화 및 명확화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 단계 실시
+1. 개발 방향 상세 협의</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -208,19 +202,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -228,7 +221,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -298,6 +291,7 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
@@ -312,6 +306,32 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -323,7 +343,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -337,44 +356,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -382,31 +401,33 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -445,10 +466,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -467,22 +488,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="열어 본 하이퍼링크" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="1" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFFFFF99"/>
-    </mruColors>
-  </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -491,25 +503,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>525922</xdr:rowOff>
+      <xdr:rowOff>525780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>737151</xdr:rowOff>
+      <xdr:rowOff>737235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="모서리가 둥근 직사각형 20"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="2497183"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="2286000"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -522,12 +536,14 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -547,29 +563,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>업무협의</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>업무 분석 및 협의 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -579,25 +590,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>36446</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>280758</xdr:rowOff>
+      <xdr:colOff>36195</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>206127</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>969066</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>1258956</xdr:rowOff>
+      <xdr:colOff>969010</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>1184662</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="모서리가 둥근 직사각형 16"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5171663" y="5051541"/>
-          <a:ext cx="932620" cy="978198"/>
+          <a:off x="5171412" y="6360105"/>
+          <a:ext cx="932815" cy="978535"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -607,12 +620,14 @@
         <a:solidFill>
           <a:schemeClr val="accent6"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -632,29 +647,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>1</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>차 팀 발표회</a:t>
+            <a:t>팀 발표회</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -664,25 +674,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>24847</xdr:colOff>
+      <xdr:colOff>24765</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>294009</xdr:rowOff>
+      <xdr:rowOff>294005</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993913</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>505238</xdr:rowOff>
+      <xdr:rowOff>505460</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="모서리가 둥근 직사각형 5"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4133021" y="1205096"/>
-          <a:ext cx="1996109" cy="211229"/>
+          <a:off x="3819525" y="1000125"/>
+          <a:ext cx="2000250" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -695,12 +707,14 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -720,27 +734,25 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchorCtr="1">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
             <a:t>업무 분석 및 설계</a:t>
           </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-            <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -749,25 +761,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>790965</xdr:rowOff>
+      <xdr:rowOff>791210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1002194</xdr:rowOff>
+      <xdr:rowOff>1002030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="모서리가 둥근 직사각형 12"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="2762226"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="2552700"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -780,12 +794,14 @@
             <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -805,29 +821,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>경로 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>STAMP </a:t>
+            <a:t>경로 STAMP </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -837,25 +848,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1047726</xdr:rowOff>
+      <xdr:rowOff>1047750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>1258955</xdr:rowOff>
+      <xdr:rowOff>1259205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="모서리가 둥근 직사각형 13"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="3018987"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="2809875"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -868,12 +881,14 @@
             <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -893,17 +908,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
             <a:t>GPS </a:t>
           </a:r>
@@ -915,25 +935,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>525922</xdr:rowOff>
+      <xdr:rowOff>525780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>737151</xdr:rowOff>
+      <xdr:rowOff>737235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="모서리가 둥근 직사각형 14"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="3896944"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="3686175"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -946,12 +968,14 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -971,29 +995,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>업무협의</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>공통 부분 개발</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1003,25 +1022,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>790965</xdr:rowOff>
+      <xdr:rowOff>791210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1002194</xdr:rowOff>
+      <xdr:rowOff>1002030</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="모서리가 둥근 직사각형 15"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="4161987"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="3952875"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1034,12 +1055,14 @@
             <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1059,29 +1082,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>경로 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>STAMP </a:t>
+            <a:t>경로 STAMP </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1091,25 +1109,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1047726</xdr:rowOff>
+      <xdr:rowOff>1047750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>993914</xdr:colOff>
+      <xdr:colOff>993775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>1258955</xdr:rowOff>
+      <xdr:rowOff>1259205</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="모서리가 둥근 직사각형 17"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="4418748"/>
-          <a:ext cx="5060674" cy="211229"/>
+          <a:off x="742950" y="4210050"/>
+          <a:ext cx="5076825" cy="219075"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1122,12 +1142,14 @@
             <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1147,17 +1169,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
             <a:t>GPS </a:t>
           </a:r>
@@ -1169,25 +1196,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>44728</xdr:colOff>
+      <xdr:colOff>44450</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>545802</xdr:rowOff>
+      <xdr:rowOff>546100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>977348</xdr:colOff>
+      <xdr:colOff>977265</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>927652</xdr:rowOff>
+      <xdr:rowOff>927735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="모서리가 둥근 직사각형 18"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4152902" y="1456889"/>
-          <a:ext cx="932620" cy="381850"/>
+          <a:off x="3838575" y="1247775"/>
+          <a:ext cx="942975" cy="390525"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1197,12 +1226,14 @@
         <a:solidFill>
           <a:schemeClr val="accent6"/>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1222,17 +1253,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
             <a:t>과제 발표</a:t>
           </a:r>
@@ -1244,25 +1280,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>385117</xdr:rowOff>
+      <xdr:rowOff>384810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>977348</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1002196</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>596346</xdr:rowOff>
+      <xdr:rowOff>596265</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="모서리가 둥근 직사각형 19"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="5155900"/>
-          <a:ext cx="4017065" cy="211229"/>
+          <a:off x="1068318" y="5155593"/>
+          <a:ext cx="5069095" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1275,12 +1313,14 @@
             <a:lumOff val="80000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1300,29 +1340,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>공통 부분 개발</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>공통 부분 개발 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1332,25 +1367,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>650160</xdr:rowOff>
+      <xdr:rowOff>650240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>977348</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1002196</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>861389</xdr:rowOff>
+      <xdr:rowOff>861695</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="모서리가 둥근 직사각형 21"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="5420943"/>
-          <a:ext cx="4017065" cy="211229"/>
+          <a:off x="1068318" y="5421023"/>
+          <a:ext cx="5069095" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1363,12 +1400,14 @@
             <a:lumOff val="60000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1388,29 +1427,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>경로 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>STAMP </a:t>
+            <a:t>경로 STAMP </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1420,25 +1454,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41275</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>906921</xdr:rowOff>
+      <xdr:rowOff>906780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>977348</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1002196</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1118150</xdr:rowOff>
+      <xdr:rowOff>1118235</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="모서리가 둥근 직사각형 22"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="5677704"/>
-          <a:ext cx="4017065" cy="211229"/>
+          <a:off x="1068318" y="5677563"/>
+          <a:ext cx="5069095" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1451,12 +1487,14 @@
             <a:lumOff val="40000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1476,17 +1514,22 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
             <a:t>GPS </a:t>
           </a:r>
@@ -1498,25 +1541,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41276</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>335422</xdr:rowOff>
+      <xdr:rowOff>335280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>985631</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>977349</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>546651</xdr:rowOff>
+      <xdr:rowOff>546735</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="모서리가 둥근 직사각형 23"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="6489400"/>
-          <a:ext cx="5052391" cy="211229"/>
+          <a:off x="1068319" y="6489258"/>
+          <a:ext cx="4017204" cy="211455"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1524,17 +1569,19 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1554,29 +1601,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>공통 부분 개발</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t> </a:t>
+            <a:t>테스트 시작 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1586,25 +1628,27 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
+      <xdr:colOff>41276</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>600465</xdr:rowOff>
+      <xdr:rowOff>600710</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>985631</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>977349</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>811694</xdr:rowOff>
+      <xdr:rowOff>811530</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="모서리가 둥근 직사각형 24"/>
-        <xdr:cNvSpPr/>
+        <xdr:cNvSpPr>
+          <a:spLocks/>
+        </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1068457" y="6754443"/>
-          <a:ext cx="5052391" cy="211229"/>
+          <a:off x="1068319" y="6754688"/>
+          <a:ext cx="4017204" cy="210820"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1612,17 +1656,18 @@
           </a:avLst>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent4">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:ln w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng">
           <a:solidFill>
             <a:schemeClr val="bg1">
               <a:lumMod val="50000"/>
+              <a:alpha val="100000"/>
             </a:schemeClr>
           </a:solidFill>
+          <a:prstDash val="solid"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
@@ -1642,107 +1687,24 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0">
+          <a:noAutofit/>
+        </a:bodyPr>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr"/>
+          <a:pPr algn="ctr">
+            <a:buFontTx/>
+            <a:buNone/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1">
+            <a:rPr lang="ko-KR" altLang="en-US" sz="900" b="1" kern="1200" dirty="0" smtClean="0">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
+              <a:latin typeface="HY둥근고딕B"/>
+              <a:ea typeface="HY둥근고딕B"/>
             </a:rPr>
-            <a:t>경로 </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>STAMP </a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>41414</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>857226</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>985631</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>1068455</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="모서리가 둥근 직사각형 25"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1068457" y="7011204"/>
-          <a:ext cx="5052391" cy="211229"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 16082"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent3">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:schemeClr val="bg1">
-              <a:lumMod val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="900" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-              <a:ea typeface="HY둥근고딕B" pitchFamily="18" charset="-127"/>
-            </a:rPr>
-            <a:t>GPS </a:t>
+            <a:t>기타 산출물 제작 </a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2039,8 +2001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2049,7 +2011,8 @@
     <col min="8" max="8" width="4" style="1" customWidth="1"/>
     <col min="9" max="9" width="28.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="25.875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="11" max="11" width="9" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="6.75" customHeight="1"/>
@@ -2064,8 +2027,8 @@
       <c r="F2" s="17"/>
       <c r="G2" s="18"/>
     </row>
-    <row r="3" spans="1:10" ht="5.25" customHeight="1" thickBot="1"/>
-    <row r="4" spans="1:10" ht="23.25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:10" ht="5.25" customHeight="1"/>
+    <row r="4" spans="1:10" ht="23.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -2091,12 +2054,12 @@
         <v>7</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="83.25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:10" ht="83.25" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="7">
         <v>1</v>
@@ -2117,15 +2080,15 @@
         <v>6</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="110.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:10" ht="110.25" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="7">
         <v>8</v>
@@ -2146,15 +2109,15 @@
         <v>13</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="110.25" customHeight="1" thickBot="1">
+    <row r="7" spans="1:10" ht="110.25" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7">
         <v>15</v>
@@ -2175,15 +2138,15 @@
         <v>20</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="108.75" customHeight="1" thickBot="1">
+    <row r="8" spans="1:10" ht="108.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B8" s="11">
         <v>22</v>
@@ -2204,15 +2167,15 @@
         <v>27</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="96" customHeight="1" thickBot="1">
+    <row r="9" spans="1:10" ht="96" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B9" s="11">
         <v>29</v>
@@ -2224,19 +2187,19 @@
         <v>31</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -2245,8 +2208,8 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.47244094488188981" right="0.39370078740157483" top="0.34" bottom="0.23" header="0.24" footer="0.17"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.47" right="0.39" top="0.34" bottom="0.23" header="0.24" footer="0.17"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>